--- a/Code/Results/Cases/Case_2_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.30258705535698</v>
+        <v>1.829825935648728</v>
       </c>
       <c r="C2">
-        <v>0.4334667997191843</v>
+        <v>0.1912749938038871</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06153474969446648</v>
+        <v>0.1748610333157306</v>
       </c>
       <c r="F2">
-        <v>1.524371568549327</v>
+        <v>2.291731066012929</v>
       </c>
       <c r="G2">
-        <v>1.058427793648434</v>
+        <v>1.229822858521331</v>
       </c>
       <c r="H2">
-        <v>0.6551292078128057</v>
+        <v>1.152188506180579</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02561894177822577</v>
+        <v>0.0575677407483699</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3728830466248922</v>
+        <v>0.4519815462856656</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7214113804714186</v>
+        <v>1.482805291469848</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.871811473834498</v>
+        <v>1.717763035893597</v>
       </c>
       <c r="C3">
-        <v>0.3841265480085099</v>
+        <v>0.175700259572011</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06036205946766238</v>
+        <v>0.1752132567747999</v>
       </c>
       <c r="F3">
-        <v>1.415499311808574</v>
+        <v>2.281435561401068</v>
       </c>
       <c r="G3">
-        <v>0.9695591912953745</v>
+        <v>1.218442010815423</v>
       </c>
       <c r="H3">
-        <v>0.622527134740821</v>
+        <v>1.153133832300298</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02740446274352237</v>
+        <v>0.05827408791961242</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3329182369313486</v>
+        <v>0.4434309366823044</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7713451483504219</v>
+        <v>1.502454042642874</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.609865039456736</v>
+        <v>1.649730772083615</v>
       </c>
       <c r="C4">
-        <v>0.3539595211226185</v>
+        <v>0.166058391701057</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0596879278008835</v>
+        <v>0.17546805021572</v>
       </c>
       <c r="F4">
-        <v>1.351593387999571</v>
+        <v>2.276419841258814</v>
       </c>
       <c r="G4">
-        <v>0.9176552623244021</v>
+        <v>1.21237134554886</v>
       </c>
       <c r="H4">
-        <v>0.6039918214517428</v>
+        <v>1.154368033702241</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02854497410307744</v>
+        <v>0.0587291881566685</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3086862397496617</v>
+        <v>0.4383570897230555</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8033603599680683</v>
+        <v>1.515126758487728</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.503675747435182</v>
+        <v>1.622202356267564</v>
       </c>
       <c r="C5">
-        <v>0.3416883923770513</v>
+        <v>0.1621093399897973</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05942442434447237</v>
+        <v>0.1755815969999173</v>
       </c>
       <c r="F5">
-        <v>1.326238215121094</v>
+        <v>2.274703882269108</v>
       </c>
       <c r="G5">
-        <v>0.8971187418516138</v>
+        <v>1.210127316077433</v>
       </c>
       <c r="H5">
-        <v>0.5967860903430164</v>
+        <v>1.155035131039469</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0290204952832398</v>
+        <v>0.05892002478969705</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2988816281972788</v>
+        <v>0.4363339330049456</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.816736390694583</v>
+        <v>1.520443832529398</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.486074288269492</v>
+        <v>1.617643092203537</v>
       </c>
       <c r="C6">
-        <v>0.3396518414314187</v>
+        <v>0.161452398375701</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05938133761784847</v>
+        <v>0.1756010390435705</v>
       </c>
       <c r="F6">
-        <v>1.322068022741789</v>
+        <v>2.274438747946235</v>
       </c>
       <c r="G6">
-        <v>0.8937442716644597</v>
+        <v>1.209768552916074</v>
       </c>
       <c r="H6">
-        <v>0.5956098705874098</v>
+        <v>1.155155809217106</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02910009480913667</v>
+        <v>0.05895203793649628</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2972576204689972</v>
+        <v>0.4360006802647263</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8189770592988754</v>
+        <v>1.521335956231068</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.608430791095032</v>
+        <v>1.649358722938302</v>
       </c>
       <c r="C7">
-        <v>0.3537939512957848</v>
+        <v>0.1660052141194797</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05968432913169686</v>
+        <v>0.1754695421676953</v>
       </c>
       <c r="F7">
-        <v>1.351248724885963</v>
+        <v>2.276395371704169</v>
       </c>
       <c r="G7">
-        <v>0.9173758799752818</v>
+        <v>1.212340152365456</v>
       </c>
       <c r="H7">
-        <v>0.6038932672859545</v>
+        <v>1.154376366103293</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02855134405824433</v>
+        <v>0.05873174006712967</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3085537362662478</v>
+        <v>0.4383296244307644</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8035394337651773</v>
+        <v>1.515197847735203</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.153472540206337</v>
+        <v>1.79102606477943</v>
       </c>
       <c r="C8">
-        <v>0.4164214071463448</v>
+        <v>0.1859211595847228</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06112067049074277</v>
+        <v>0.1749745006734944</v>
       </c>
       <c r="F8">
-        <v>1.486188883821299</v>
+        <v>2.287909939721359</v>
       </c>
       <c r="G8">
-        <v>1.027199416858096</v>
+        <v>1.225707867152295</v>
       </c>
       <c r="H8">
-        <v>0.6435645866516637</v>
+        <v>1.152378614155097</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02622519032214754</v>
+        <v>0.05780684667039715</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3590352055122707</v>
+        <v>0.4489968017343671</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7383401217287346</v>
+        <v>1.489453854471625</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.246776960999455</v>
+        <v>2.074979770836649</v>
       </c>
       <c r="C9">
-        <v>0.5407492613827003</v>
+        <v>0.2243549131588622</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06431805423214954</v>
+        <v>0.1743082175549269</v>
       </c>
       <c r="F9">
-        <v>1.776731427548114</v>
+        <v>2.320871219521564</v>
       </c>
       <c r="G9">
-        <v>1.266355121960061</v>
+        <v>1.259240253437156</v>
       </c>
       <c r="H9">
-        <v>0.7343581987244931</v>
+        <v>1.153660909290977</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.022032221204078</v>
+        <v>0.05616298511558515</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4608053693112879</v>
+        <v>0.4713084011461746</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.621789730881309</v>
+        <v>1.443801406876764</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.071455658894138</v>
+        <v>2.287366520623607</v>
       </c>
       <c r="C10">
-        <v>0.6337900906434868</v>
+        <v>0.2522226299761314</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06692464805119691</v>
+        <v>0.1740027862676055</v>
       </c>
       <c r="F10">
-        <v>2.009920536042614</v>
+        <v>2.351451651404261</v>
       </c>
       <c r="G10">
-        <v>1.460639146729534</v>
+        <v>1.288398922908613</v>
       </c>
       <c r="H10">
-        <v>0.8108710582206413</v>
+        <v>1.157792494192165</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01920444049419423</v>
+        <v>0.05505882075855162</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5377946699309462</v>
+        <v>0.4885453162095956</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5438794854812787</v>
+        <v>1.413211571197863</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.452895608357323</v>
+        <v>2.384810558324432</v>
       </c>
       <c r="C11">
-        <v>0.6766802034757404</v>
+        <v>0.264822283381136</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06817268349927197</v>
+        <v>0.1739034920723661</v>
       </c>
       <c r="F11">
-        <v>2.12125833355914</v>
+        <v>2.366753389008593</v>
       </c>
       <c r="G11">
-        <v>1.55407061062607</v>
+        <v>1.3026594611799</v>
       </c>
       <c r="H11">
-        <v>0.8482767870871157</v>
+        <v>1.160369025550921</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0179802380906473</v>
+        <v>0.05457900963863871</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5734308703252253</v>
+        <v>0.4965693752637037</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5103178878704178</v>
+        <v>1.399937525927065</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.598391019633937</v>
+        <v>2.421829168160514</v>
       </c>
       <c r="C12">
-        <v>0.6930211066921004</v>
+        <v>0.2695824164712803</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06865482157172487</v>
+        <v>0.1738715662454364</v>
       </c>
       <c r="F12">
-        <v>2.164265169801396</v>
+        <v>2.372748260148654</v>
       </c>
       <c r="G12">
-        <v>1.590271412380474</v>
+        <v>1.308203807034261</v>
       </c>
       <c r="H12">
-        <v>0.8628589242117357</v>
+        <v>1.161445254622492</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0175263267192669</v>
+        <v>0.0544005528584206</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5870254609640995</v>
+        <v>0.4996340617421708</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4978987644415458</v>
+        <v>1.39500338401135</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.567006651646864</v>
+        <v>2.413851277129879</v>
       </c>
       <c r="C13">
-        <v>0.6894970726761187</v>
+        <v>0.2685577284936471</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06855055062762894</v>
+        <v>0.1738781900800479</v>
       </c>
       <c r="F13">
-        <v>2.154963747737497</v>
+        <v>2.3714482353205</v>
       </c>
       <c r="G13">
-        <v>1.582436833289449</v>
+        <v>1.307003304896853</v>
       </c>
       <c r="H13">
-        <v>0.8596990928216428</v>
+        <v>1.161208992236936</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01762364203359201</v>
+        <v>0.05443884266000865</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5840929787685383</v>
+        <v>0.4989728660644204</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5005602174120778</v>
+        <v>1.396061924483478</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.464843609220509</v>
+        <v>2.387853725781667</v>
       </c>
       <c r="C14">
-        <v>0.6780224775880583</v>
+        <v>0.2652141241287893</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06821215468509934</v>
+        <v>0.1739007519371025</v>
       </c>
       <c r="F14">
-        <v>2.124779039842039</v>
+        <v>2.367242570894192</v>
       </c>
       <c r="G14">
-        <v>1.557031857594609</v>
+        <v>1.303112702616318</v>
       </c>
       <c r="H14">
-        <v>0.8494678369805797</v>
+        <v>1.160455550510449</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01794269625523981</v>
+        <v>0.05456426298311357</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5745472313127067</v>
+        <v>0.496820985651766</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5092902294010351</v>
+        <v>1.399529736994435</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.40240750230555</v>
+        <v>2.371944916368761</v>
       </c>
       <c r="C15">
-        <v>0.6710074655950677</v>
+        <v>0.2631646285983322</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0680061372021683</v>
+        <v>0.1739153099570192</v>
       </c>
       <c r="F15">
-        <v>2.106402967711603</v>
+        <v>2.364692596823772</v>
       </c>
       <c r="G15">
-        <v>1.541580367935893</v>
+        <v>1.300748402400018</v>
       </c>
       <c r="H15">
-        <v>0.8432566265202297</v>
+        <v>1.160007150091644</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01813940845783257</v>
+        <v>0.05464150828988235</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5687135676925834</v>
+        <v>0.4955062977315805</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5146759851955451</v>
+        <v>1.401665918616049</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.046666523806095</v>
+        <v>2.281014952591875</v>
       </c>
       <c r="C16">
-        <v>0.6309999945950437</v>
+        <v>0.2513976586940601</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06684438735135956</v>
+        <v>0.1740100709173209</v>
       </c>
       <c r="F16">
-        <v>2.002757612914394</v>
+        <v>2.350479668781176</v>
       </c>
       <c r="G16">
-        <v>1.454642632896309</v>
+        <v>1.287487088576597</v>
       </c>
       <c r="H16">
-        <v>0.8084824397990928</v>
+        <v>1.157638165318502</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01928575600285676</v>
+        <v>0.05509063028358963</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5354790802833236</v>
+        <v>0.4880245925228479</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5461122759698878</v>
+        <v>1.414091986596548</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.830142396626115</v>
+        <v>2.22544418470568</v>
       </c>
       <c r="C17">
-        <v>0.6066137284918796</v>
+        <v>0.2441591963126655</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06614803646404255</v>
+        <v>0.1740783395116612</v>
       </c>
       <c r="F17">
-        <v>1.940582339615744</v>
+        <v>2.342116986862251</v>
       </c>
       <c r="G17">
-        <v>1.402666661130183</v>
+        <v>1.279607504301168</v>
       </c>
       <c r="H17">
-        <v>0.7878450403892714</v>
+        <v>1.156363626258127</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02000541387010824</v>
+        <v>0.05537191280982512</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5152558951748034</v>
+        <v>0.4834815456094361</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5658922854744048</v>
+        <v>1.421879411856846</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.70618572348684</v>
+        <v>2.193559331570384</v>
       </c>
       <c r="C18">
-        <v>0.5926394148989118</v>
+        <v>0.239988524612869</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06575333827429652</v>
+        <v>0.1741213392405374</v>
       </c>
       <c r="F18">
-        <v>1.905309907488473</v>
+        <v>2.337437849318718</v>
       </c>
       <c r="G18">
-        <v>1.373240674938017</v>
+        <v>1.275169077605057</v>
       </c>
       <c r="H18">
-        <v>0.7762167828903159</v>
+        <v>1.155696135806608</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02042514474680779</v>
+        <v>0.05553581458323631</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5036810216915768</v>
+        <v>0.4808857295443119</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5774449118708418</v>
+        <v>1.426418893566815</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.664311867383105</v>
+        <v>2.182777075190245</v>
       </c>
       <c r="C19">
-        <v>0.5879163697651677</v>
+        <v>0.238575151211819</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06562068394044651</v>
+        <v>0.174136540245577</v>
       </c>
       <c r="F19">
-        <v>1.893448696982119</v>
+        <v>2.335876033947386</v>
       </c>
       <c r="G19">
-        <v>1.363355420746529</v>
+        <v>1.273682367113963</v>
       </c>
       <c r="H19">
-        <v>0.7723199338942095</v>
+        <v>1.155481390665074</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02056823441698175</v>
+        <v>0.05559167210292149</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4997714135025291</v>
+        <v>0.4800097937629459</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5813860428902924</v>
+        <v>1.427966244625548</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.853130472621444</v>
+        <v>2.231351720083296</v>
       </c>
       <c r="C20">
-        <v>0.609204179784598</v>
+        <v>0.2449304980052602</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06622155740056179</v>
+        <v>0.1740706859996219</v>
       </c>
       <c r="F20">
-        <v>1.94714975995511</v>
+        <v>2.342993662137758</v>
       </c>
       <c r="G20">
-        <v>1.408150379331119</v>
+        <v>1.280436594882417</v>
       </c>
       <c r="H20">
-        <v>0.7900165971144872</v>
+        <v>1.156492512464553</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01992819954124325</v>
+        <v>0.05534175082514547</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5174027104386312</v>
+        <v>0.4839633791528826</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5637683511988829</v>
+        <v>1.421044178530176</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.494821553494603</v>
+        <v>2.395486619567748</v>
       </c>
       <c r="C21">
-        <v>0.681389993924796</v>
+        <v>0.2661965220340221</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06831128611698389</v>
+        <v>0.1738939711733387</v>
       </c>
       <c r="F21">
-        <v>2.133621312621798</v>
+        <v>2.368472432900234</v>
       </c>
       <c r="G21">
-        <v>1.564470852316447</v>
+        <v>1.304251545954429</v>
       </c>
       <c r="H21">
-        <v>0.8524613065813469</v>
+        <v>1.160674123093088</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01784871362937324</v>
+        <v>0.05452733609497162</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5773482372813845</v>
+        <v>0.4974523366008725</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5067179789347112</v>
+        <v>1.398508645562146</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.920418072641041</v>
+        <v>2.503449760463809</v>
       </c>
       <c r="C22">
-        <v>0.7291565907987945</v>
+        <v>0.2800305331720381</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06973292990744184</v>
+        <v>0.173811542282678</v>
       </c>
       <c r="F22">
-        <v>2.260468442429797</v>
+        <v>2.386292797888828</v>
       </c>
       <c r="G22">
-        <v>1.671467883425663</v>
+        <v>1.320656885137993</v>
       </c>
       <c r="H22">
-        <v>0.8957291073345459</v>
+        <v>1.163993294735178</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0165464112953444</v>
+        <v>0.05401394075752819</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.617114904199866</v>
+        <v>0.5064205000034718</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4711327343237528</v>
+        <v>1.384319351140375</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.692647550575998</v>
+        <v>2.4457646672397</v>
       </c>
       <c r="C23">
-        <v>0.7036022497208876</v>
+        <v>0.2726529473005996</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06896885128689867</v>
+        <v>0.1738525194705005</v>
       </c>
       <c r="F23">
-        <v>2.192280370489868</v>
+        <v>2.376674655408891</v>
       </c>
       <c r="G23">
-        <v>1.613885646834831</v>
+        <v>1.311823789807249</v>
       </c>
       <c r="H23">
-        <v>0.8723958625903379</v>
+        <v>1.162168042847583</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01723601369560157</v>
+        <v>0.0542862210738706</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5958326256090913</v>
+        <v>0.5016201319799762</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4899626580461636</v>
+        <v>1.39184305534692</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.842735936294446</v>
+        <v>2.228680725445201</v>
       </c>
       <c r="C24">
-        <v>0.608032895823726</v>
+        <v>0.244581821122182</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06618830105074913</v>
+        <v>0.1740741344664443</v>
       </c>
       <c r="F24">
-        <v>1.944179162699612</v>
+        <v>2.342596916458618</v>
       </c>
       <c r="G24">
-        <v>1.405669777939295</v>
+        <v>1.280061477619284</v>
       </c>
       <c r="H24">
-        <v>0.7890341030411037</v>
+        <v>1.156434039756078</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0199630895356151</v>
+        <v>0.05535538024087217</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5164319750806925</v>
+        <v>0.4837454922293887</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5647280200775313</v>
+        <v>1.421421593199831</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.947752782170937</v>
+        <v>1.997502937450463</v>
       </c>
       <c r="C25">
-        <v>0.5068778360047475</v>
+        <v>0.2140231357799678</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06340983816036427</v>
+        <v>0.1744560267406037</v>
       </c>
       <c r="F25">
-        <v>1.694972320189578</v>
+        <v>2.310839331686367</v>
       </c>
       <c r="G25">
-        <v>1.198712174625598</v>
+        <v>1.249379095770308</v>
       </c>
       <c r="H25">
-        <v>0.7082206509834919</v>
+        <v>1.152755330557738</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02312438135445172</v>
+        <v>0.05658950679088681</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4329250307585255</v>
+        <v>0.4651238630860917</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6520286370434736</v>
+        <v>1.455633805692926</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.829825935648728</v>
+        <v>3.302587055357094</v>
       </c>
       <c r="C2">
-        <v>0.1912749938038871</v>
+        <v>0.4334667997193264</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1748610333157306</v>
+        <v>0.06153474969445938</v>
       </c>
       <c r="F2">
-        <v>2.291731066012929</v>
+        <v>1.524371568549327</v>
       </c>
       <c r="G2">
-        <v>1.229822858521331</v>
+        <v>1.058427793648434</v>
       </c>
       <c r="H2">
-        <v>1.152188506180579</v>
+        <v>0.6551292078130331</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0575677407483699</v>
+        <v>0.02561894177820534</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4519815462856656</v>
+        <v>0.3728830466248496</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.482805291469848</v>
+        <v>0.7214113804714</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.717763035893597</v>
+        <v>2.871811473834327</v>
       </c>
       <c r="C3">
-        <v>0.175700259572011</v>
+        <v>0.384126548008652</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1752132567747999</v>
+        <v>0.06036205946766238</v>
       </c>
       <c r="F3">
-        <v>2.281435561401068</v>
+        <v>1.415499311808574</v>
       </c>
       <c r="G3">
-        <v>1.218442010815423</v>
+        <v>0.9695591912953034</v>
       </c>
       <c r="H3">
-        <v>1.153133832300298</v>
+        <v>0.622527134740821</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05827408791961242</v>
+        <v>0.02740446274362318</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4434309366823044</v>
+        <v>0.332918236931306</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.502454042642874</v>
+        <v>0.7713451483504778</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.649730772083615</v>
+        <v>2.609865039456622</v>
       </c>
       <c r="C4">
-        <v>0.166058391701057</v>
+        <v>0.3539595211221354</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.17546805021572</v>
+        <v>0.05968792780088705</v>
       </c>
       <c r="F4">
-        <v>2.276419841258814</v>
+        <v>1.351593387999586</v>
       </c>
       <c r="G4">
-        <v>1.21237134554886</v>
+        <v>0.9176552623244021</v>
       </c>
       <c r="H4">
-        <v>1.154368033702241</v>
+        <v>0.6039918214517428</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0587291881566685</v>
+        <v>0.02854497410313295</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4383570897230555</v>
+        <v>0.3086862397496191</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.515126758487728</v>
+        <v>0.8033603599680745</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.622202356267564</v>
+        <v>2.503675747435409</v>
       </c>
       <c r="C5">
-        <v>0.1621093399897973</v>
+        <v>0.3416883923770797</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1755815969999173</v>
+        <v>0.05942442434447059</v>
       </c>
       <c r="F5">
-        <v>2.274703882269108</v>
+        <v>1.326238215121066</v>
       </c>
       <c r="G5">
-        <v>1.210127316077433</v>
+        <v>0.8971187418515996</v>
       </c>
       <c r="H5">
-        <v>1.155035131039469</v>
+        <v>0.5967860903430164</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05892002478969705</v>
+        <v>0.02902049528324513</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4363339330049456</v>
+        <v>0.2988816281972504</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.520443832529398</v>
+        <v>0.8167363906945333</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.617643092203537</v>
+        <v>2.486074288269492</v>
       </c>
       <c r="C6">
-        <v>0.161452398375701</v>
+        <v>0.3396518414311629</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1756010390435705</v>
+        <v>0.05938133761784314</v>
       </c>
       <c r="F6">
-        <v>2.274438747946235</v>
+        <v>1.322068022741774</v>
       </c>
       <c r="G6">
-        <v>1.209768552916074</v>
+        <v>0.8937442716644739</v>
       </c>
       <c r="H6">
-        <v>1.155155809217106</v>
+        <v>0.5956098705872819</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05895203793649628</v>
+        <v>0.0291000948091531</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4360006802647263</v>
+        <v>0.297257620469054</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.521335956231068</v>
+        <v>0.8189770592988612</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.649358722938302</v>
+        <v>2.608430791095032</v>
       </c>
       <c r="C7">
-        <v>0.1660052141194797</v>
+        <v>0.353793951296268</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1754695421676953</v>
+        <v>0.05968432913169686</v>
       </c>
       <c r="F7">
-        <v>2.276395371704169</v>
+        <v>1.351248724885963</v>
       </c>
       <c r="G7">
-        <v>1.212340152365456</v>
+        <v>0.917375879975296</v>
       </c>
       <c r="H7">
-        <v>1.154376366103293</v>
+        <v>0.6038932672859545</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05873174006712967</v>
+        <v>0.0285513440583145</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4383296244307644</v>
+        <v>0.308553736266191</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.515197847735203</v>
+        <v>0.803539433765124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.79102606477943</v>
+        <v>3.153472540206394</v>
       </c>
       <c r="C8">
-        <v>0.1859211595847228</v>
+        <v>0.4164214071462879</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1749745006734944</v>
+        <v>0.06112067049075876</v>
       </c>
       <c r="F8">
-        <v>2.287909939721359</v>
+        <v>1.486188883821299</v>
       </c>
       <c r="G8">
-        <v>1.225707867152295</v>
+        <v>1.027199416858039</v>
       </c>
       <c r="H8">
-        <v>1.152378614155097</v>
+        <v>0.6435645866516637</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05780684667039715</v>
+        <v>0.02622519032219239</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4489968017343671</v>
+        <v>0.3590352055123276</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.489453854471625</v>
+        <v>0.7383401217287453</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.074979770836649</v>
+        <v>4.246776960999398</v>
       </c>
       <c r="C9">
-        <v>0.2243549131588622</v>
+        <v>0.5407492613827287</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1743082175549269</v>
+        <v>0.06431805423217618</v>
       </c>
       <c r="F9">
-        <v>2.320871219521564</v>
+        <v>1.776731427548128</v>
       </c>
       <c r="G9">
-        <v>1.259240253437156</v>
+        <v>1.266355121960089</v>
       </c>
       <c r="H9">
-        <v>1.153660909290977</v>
+        <v>0.7343581987244931</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05616298511558515</v>
+        <v>0.02203222120417392</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4713084011461746</v>
+        <v>0.4608053693112595</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.443801406876764</v>
+        <v>0.6217897308812894</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.287366520623607</v>
+        <v>5.071455658894024</v>
       </c>
       <c r="C10">
-        <v>0.2522226299761314</v>
+        <v>0.6337900906433163</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1740027862676055</v>
+        <v>0.06692464805119869</v>
       </c>
       <c r="F10">
-        <v>2.351451651404261</v>
+        <v>2.009920536042628</v>
       </c>
       <c r="G10">
-        <v>1.288398922908613</v>
+        <v>1.460639146729591</v>
       </c>
       <c r="H10">
-        <v>1.157792494192165</v>
+        <v>0.8108710582206697</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05505882075855162</v>
+        <v>0.01920444049413916</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4885453162095956</v>
+        <v>0.5377946699310741</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.413211571197863</v>
+        <v>0.5438794854812823</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.384810558324432</v>
+        <v>5.452895608357323</v>
       </c>
       <c r="C11">
-        <v>0.264822283381136</v>
+        <v>0.6766802034757688</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1739034920723661</v>
+        <v>0.06817268349925953</v>
       </c>
       <c r="F11">
-        <v>2.366753389008593</v>
+        <v>2.12125833355914</v>
       </c>
       <c r="G11">
-        <v>1.3026594611799</v>
+        <v>1.554070610625985</v>
       </c>
       <c r="H11">
-        <v>1.160369025550921</v>
+        <v>0.8482767870871442</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05457900963863871</v>
+        <v>0.0179802380906473</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4965693752637037</v>
+        <v>0.5734308703251827</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.399937525927065</v>
+        <v>0.5103178878703591</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.421829168160514</v>
+        <v>5.598391019633823</v>
       </c>
       <c r="C12">
-        <v>0.2695824164712803</v>
+        <v>0.6930211066919583</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1738715662454364</v>
+        <v>0.06865482157172309</v>
       </c>
       <c r="F12">
-        <v>2.372748260148654</v>
+        <v>2.164265169801411</v>
       </c>
       <c r="G12">
-        <v>1.308203807034261</v>
+        <v>1.590271412380503</v>
       </c>
       <c r="H12">
-        <v>1.161445254622492</v>
+        <v>0.8628589242117357</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0544005528584206</v>
+        <v>0.01752632671926335</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4996340617421708</v>
+        <v>0.5870254609641563</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.39500338401135</v>
+        <v>0.4978987644416044</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.413851277129879</v>
+        <v>5.56700665164675</v>
       </c>
       <c r="C13">
-        <v>0.2685577284936471</v>
+        <v>0.6894970726761187</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1738781900800479</v>
+        <v>0.06855055062763071</v>
       </c>
       <c r="F13">
-        <v>2.3714482353205</v>
+        <v>2.154963747737497</v>
       </c>
       <c r="G13">
-        <v>1.307003304896853</v>
+        <v>1.582436833289364</v>
       </c>
       <c r="H13">
-        <v>1.161208992236936</v>
+        <v>0.8596990928215291</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05443884266000865</v>
+        <v>0.01762364203355293</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4989728660644204</v>
+        <v>0.5840929787685951</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.396061924483478</v>
+        <v>0.500560217412092</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.387853725781667</v>
+        <v>5.464843609220566</v>
       </c>
       <c r="C14">
-        <v>0.2652141241287893</v>
+        <v>0.6780224775880868</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1739007519371025</v>
+        <v>0.06821215468508868</v>
       </c>
       <c r="F14">
-        <v>2.367242570894192</v>
+        <v>2.124779039842039</v>
       </c>
       <c r="G14">
-        <v>1.303112702616318</v>
+        <v>1.557031857594552</v>
       </c>
       <c r="H14">
-        <v>1.160455550510449</v>
+        <v>0.8494678369805513</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05456426298311357</v>
+        <v>0.01794269625515987</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.496820985651766</v>
+        <v>0.5745472313127209</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.399529736994435</v>
+        <v>0.5092902294010013</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.371944916368761</v>
+        <v>5.402407502305437</v>
       </c>
       <c r="C15">
-        <v>0.2631646285983322</v>
+        <v>0.6710074655950962</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1739153099570192</v>
+        <v>0.06800613720217541</v>
       </c>
       <c r="F15">
-        <v>2.364692596823772</v>
+        <v>2.106402967711603</v>
       </c>
       <c r="G15">
-        <v>1.300748402400018</v>
+        <v>1.541580367935893</v>
       </c>
       <c r="H15">
-        <v>1.160007150091644</v>
+        <v>0.8432566265202297</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05464150828988235</v>
+        <v>0.01813940845782902</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4955062977315805</v>
+        <v>0.568713567692555</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.401665918616049</v>
+        <v>0.5146759851954847</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.281014952591875</v>
+        <v>5.046666523806152</v>
       </c>
       <c r="C16">
-        <v>0.2513976586940601</v>
+        <v>0.6309999945951574</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1740100709173209</v>
+        <v>0.06684438735136133</v>
       </c>
       <c r="F16">
-        <v>2.350479668781176</v>
+        <v>2.002757612914394</v>
       </c>
       <c r="G16">
-        <v>1.287487088576597</v>
+        <v>1.454642632896366</v>
       </c>
       <c r="H16">
-        <v>1.157638165318502</v>
+        <v>0.8084824397990928</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05509063028358963</v>
+        <v>0.01928575600280791</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4880245925228479</v>
+        <v>0.5354790802833804</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.414091986596548</v>
+        <v>0.5461122759698291</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.22544418470568</v>
+        <v>4.830142396626172</v>
       </c>
       <c r="C17">
-        <v>0.2441591963126655</v>
+        <v>0.6066137284919932</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1740783395116612</v>
+        <v>0.06614803646406386</v>
       </c>
       <c r="F17">
-        <v>2.342116986862251</v>
+        <v>1.940582339615759</v>
       </c>
       <c r="G17">
-        <v>1.279607504301168</v>
+        <v>1.402666661130212</v>
       </c>
       <c r="H17">
-        <v>1.156363626258127</v>
+        <v>0.787845040389243</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05537191280982512</v>
+        <v>0.02000541387021393</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4834815456094361</v>
+        <v>0.5152558951746755</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.421879411856846</v>
+        <v>0.5658922854743889</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.193559331570384</v>
+        <v>4.706185723486726</v>
       </c>
       <c r="C18">
-        <v>0.239988524612869</v>
+        <v>0.5926394148987697</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1741213392405374</v>
+        <v>0.06575333827430541</v>
       </c>
       <c r="F18">
-        <v>2.337437849318718</v>
+        <v>1.905309907488473</v>
       </c>
       <c r="G18">
-        <v>1.275169077605057</v>
+        <v>1.373240674938046</v>
       </c>
       <c r="H18">
-        <v>1.155696135806608</v>
+        <v>0.7762167828903443</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05553581458323631</v>
+        <v>0.02042514474676871</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4808857295443119</v>
+        <v>0.5036810216915626</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.426418893566815</v>
+        <v>0.5774449118708596</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.182777075190245</v>
+        <v>4.664311867383276</v>
       </c>
       <c r="C19">
-        <v>0.238575151211819</v>
+        <v>0.5879163697651393</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.174136540245577</v>
+        <v>0.06562068394044829</v>
       </c>
       <c r="F19">
-        <v>2.335876033947386</v>
+        <v>1.893448696982119</v>
       </c>
       <c r="G19">
-        <v>1.273682367113963</v>
+        <v>1.363355420746558</v>
       </c>
       <c r="H19">
-        <v>1.155481390665074</v>
+        <v>0.7723199338942095</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05559167210292149</v>
+        <v>0.02056823441698441</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4800097937629459</v>
+        <v>0.499771413502458</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.427966244625548</v>
+        <v>0.5813860428902924</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.231351720083296</v>
+        <v>4.853130472621501</v>
       </c>
       <c r="C20">
-        <v>0.2449304980052602</v>
+        <v>0.6092041797844558</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1740706859996219</v>
+        <v>0.06622155740054048</v>
       </c>
       <c r="F20">
-        <v>2.342993662137758</v>
+        <v>1.947149759955138</v>
       </c>
       <c r="G20">
-        <v>1.280436594882417</v>
+        <v>1.408150379331147</v>
       </c>
       <c r="H20">
-        <v>1.156492512464553</v>
+        <v>0.7900165971144872</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05534175082514547</v>
+        <v>0.01992819954118463</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4839633791528826</v>
+        <v>0.5174027104387164</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.421044178530176</v>
+        <v>0.5637683511988865</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.395486619567748</v>
+        <v>5.494821553494376</v>
       </c>
       <c r="C21">
-        <v>0.2661965220340221</v>
+        <v>0.6813899939250803</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1738939711733387</v>
+        <v>0.06831128611698567</v>
       </c>
       <c r="F21">
-        <v>2.368472432900234</v>
+        <v>2.133621312621784</v>
       </c>
       <c r="G21">
-        <v>1.304251545954429</v>
+        <v>1.564470852316333</v>
       </c>
       <c r="H21">
-        <v>1.160674123093088</v>
+        <v>0.852461306581489</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05452733609497162</v>
+        <v>0.01784871362943719</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4974523366008725</v>
+        <v>0.5773482372813703</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.398508645562146</v>
+        <v>0.5067179789347147</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.503449760463809</v>
+        <v>5.920418072641098</v>
       </c>
       <c r="C22">
-        <v>0.2800305331720381</v>
+        <v>0.7291565907987945</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.173811542282678</v>
+        <v>0.06973292990744184</v>
       </c>
       <c r="F22">
-        <v>2.386292797888828</v>
+        <v>2.260468442429797</v>
       </c>
       <c r="G22">
-        <v>1.320656885137993</v>
+        <v>1.671467883425606</v>
       </c>
       <c r="H22">
-        <v>1.163993294735178</v>
+        <v>0.8957291073344322</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05401394075752819</v>
+        <v>0.01654641129534618</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5064205000034718</v>
+        <v>0.6171149041999229</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.384319351140375</v>
+        <v>0.471132734323751</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.4457646672397</v>
+        <v>5.692647550575941</v>
       </c>
       <c r="C23">
-        <v>0.2726529473005996</v>
+        <v>0.7036022497210865</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1738525194705005</v>
+        <v>0.06896885128690045</v>
       </c>
       <c r="F23">
-        <v>2.376674655408891</v>
+        <v>2.192280370489868</v>
       </c>
       <c r="G23">
-        <v>1.311823789807249</v>
+        <v>1.613885646834831</v>
       </c>
       <c r="H23">
-        <v>1.162168042847583</v>
+        <v>0.8723958625903379</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0542862210738706</v>
+        <v>0.0172360136955545</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5016201319799762</v>
+        <v>0.5958326256091482</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.39184305534692</v>
+        <v>0.4899626580461582</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.228680725445201</v>
+        <v>4.842735936294503</v>
       </c>
       <c r="C24">
-        <v>0.244581821122182</v>
+        <v>0.608032895823726</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1740741344664443</v>
+        <v>0.06618830105070828</v>
       </c>
       <c r="F24">
-        <v>2.342596916458618</v>
+        <v>1.944179162699612</v>
       </c>
       <c r="G24">
-        <v>1.280061477619284</v>
+        <v>1.405669777939352</v>
       </c>
       <c r="H24">
-        <v>1.156434039756078</v>
+        <v>0.7890341030411037</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05535538024087217</v>
+        <v>0.01996308953565595</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4837454922293887</v>
+        <v>0.5164319750806499</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.421421593199831</v>
+        <v>0.5647280200775207</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.997502937450463</v>
+        <v>3.947752782170994</v>
       </c>
       <c r="C25">
-        <v>0.2140231357799678</v>
+        <v>0.5068778360047475</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1744560267406037</v>
+        <v>0.06340983816039625</v>
       </c>
       <c r="F25">
-        <v>2.310839331686367</v>
+        <v>1.694972320189606</v>
       </c>
       <c r="G25">
-        <v>1.249379095770308</v>
+        <v>1.198712174625513</v>
       </c>
       <c r="H25">
-        <v>1.152755330557738</v>
+        <v>0.7082206509833782</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05658950679088681</v>
+        <v>0.02312438135450856</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4651238630860917</v>
+        <v>0.432925030758625</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.455633805692926</v>
+        <v>0.6520286370434825</v>
       </c>
       <c r="O25">
         <v>0</v>
